--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -14,43 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>FILE</t>
   </si>
   <si>
-    <t>UNISOM_07102020_958250_544088_A.xml</t>
-  </si>
-  <si>
-    <t>UNISOM_07102020_958250_544088_B.xml</t>
-  </si>
-  <si>
-    <t>UNISOM_07102020_958250_544088_C.xml</t>
+    <t>structure_example - Copia (2) - Copia.xml</t>
+  </si>
+  <si>
+    <t>structure_example - Copia (2).xml</t>
+  </si>
+  <si>
+    <t>structure_example - Copia (3) - Copia.xml</t>
   </si>
   <si>
     <t>CAMPO DA MODIFICARE</t>
   </si>
   <si>
-    <t>{http://servizi.lavoro.gov.it/unisomm}AgenziaSomministrazione</t>
+    <t>{http://servizi.lavoro.gov.it/unisomm}TipoComunicazione</t>
   </si>
   <si>
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    </t>
+    <t>fasd</t>
   </si>
   <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>12</t>
   </si>
   <si>
     <t>ESITO</t>
   </si>
   <si>
     <t>Positivo</t>
+  </si>
+  <si>
+    <t>COMPARAZIONE XSD</t>
+  </si>
+  <si>
+    <t>Convalidazione Corretta</t>
   </si>
 </sst>
 </file>
@@ -382,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +409,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -421,8 +429,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -438,8 +449,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -454,6 +468,9 @@
       </c>
       <c r="E4" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -14,48 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FILE</t>
   </si>
   <si>
-    <t>structure_example - Copia (2) - Copia.xml</t>
-  </si>
-  <si>
-    <t>structure_example - Copia (2).xml</t>
-  </si>
-  <si>
-    <t>structure_example - Copia (3) - Copia.xml</t>
-  </si>
-  <si>
     <t>CAMPO DA MODIFICARE</t>
   </si>
   <si>
-    <t>{http://servizi.lavoro.gov.it/unisomm}TipoComunicazione</t>
-  </si>
-  <si>
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
-    <t>fasd</t>
-  </si>
-  <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>ESITO</t>
   </si>
   <si>
-    <t>Positivo</t>
-  </si>
-  <si>
     <t>COMPARAZIONE XSD</t>
-  </si>
-  <si>
-    <t>Convalidazione Corretta</t>
   </si>
 </sst>
 </file>
@@ -387,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,79 +374,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -14,21 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>FILE</t>
   </si>
   <si>
+    <t>UNISOM_29102020_959586_537974_C.xml</t>
+  </si>
+  <si>
+    <t>UNISOM_29102020_959845_516017_C.xml</t>
+  </si>
+  <si>
+    <t>UNISOM_29102020_960139_509969_C.xml</t>
+  </si>
+  <si>
+    <t>UNISOM_29102020_960638_490550_C.xml</t>
+  </si>
+  <si>
     <t>CAMPO DA MODIFICARE</t>
   </si>
   <si>
+    <t>{http://servizi.lavoro.gov.it/unisomm}TipoComunicazione</t>
+  </si>
+  <si>
+    <t>{http://servizi.lavoro.gov.it/unisomm}AgenziaSomministrazione/{http://servizi.lavoro.gov.it/unisomm}DatoreAnagraficaCompleta/{http://servizi.lavoro.gov.it/unisomm}cognome</t>
+  </si>
+  <si>
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Turrini</t>
+  </si>
+  <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>pippo</t>
+  </si>
+  <si>
     <t>ESITO</t>
+  </si>
+  <si>
+    <t>Positivo</t>
   </si>
   <si>
     <t>COMPARAZIONE XSD</t>
@@ -363,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,19 +407,155 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Ali Haider Maqsood\Documents\GitHub\MAW\Modifica_campi_xml\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B0BAC-AADE-4CDE-9563-BA73BC7025D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="30360" yWindow="4035" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>FILE</t>
   </si>
@@ -34,10 +40,7 @@
     <t>CAMPO DA MODIFICARE</t>
   </si>
   <si>
-    <t>{http://servizi.lavoro.gov.it/unisomm}TipoComunicazione</t>
-  </si>
-  <si>
-    <t>{http://servizi.lavoro.gov.it/unisomm}AgenziaSomministrazione/{http://servizi.lavoro.gov.it/unisomm}DatoreAnagraficaCompleta/{http://servizi.lavoro.gov.it/unisomm}cognome</t>
+    <t>TipoComunicazione</t>
   </si>
   <si>
     <t>VALORE DA MODIFICARE</t>
@@ -46,16 +49,10 @@
     <t>01</t>
   </si>
   <si>
-    <t>Turrini</t>
-  </si>
-  <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>pippo</t>
+    <t>567</t>
   </si>
   <si>
     <t>ESITO</t>
@@ -65,13 +62,16 @@
   </si>
   <si>
     <t>COMPARAZIONE XSD</t>
+  </si>
+  <si>
+    <t>UpdateTextIn(node='/*/*[5]', text='567')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,15 +104,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -154,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,14 +439,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,19 +462,19 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,132 +482,76 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Ali Haider Maqsood\Documents\GitHub\MAW\Modifica_campi_xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B0BAC-AADE-4CDE-9563-BA73BC7025D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564BEBA-F53E-4EF7-802D-075D2EA8333F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30360" yWindow="4035" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>FILE</t>
   </si>
@@ -43,16 +43,25 @@
     <t>TipoComunicazione</t>
   </si>
   <si>
+    <t>AgenziaSomministrazione/{http://servizi.lavoro.gov.it/unisomm}DatoreAnagraficaCompleta/{http://servizi.lavoro.gov.it/unisomm}cognome</t>
+  </si>
+  <si>
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>Turrini</t>
+  </si>
+  <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>567</t>
+    <t>555555</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
   </si>
   <si>
     <t>ESITO</t>
@@ -61,10 +70,10 @@
     <t>Positivo</t>
   </si>
   <si>
-    <t>COMPARAZIONE XSD</t>
-  </si>
-  <si>
-    <t>UpdateTextIn(node='/*/*[5]', text='567')</t>
+    <t>DIFFERENZE</t>
+  </si>
+  <si>
+    <t>UpdateTextIn(node='/*/*[5]', text='555555')</t>
   </si>
 </sst>
 </file>
@@ -440,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -462,16 +471,16 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -482,76 +491,144 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Ali Haider Maqsood\Documents\GitHub\MAW\Modifica_campi_xml\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564BEBA-F53E-4EF7-802D-075D2EA8333F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="4035" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>FILE</t>
   </si>
@@ -43,25 +37,16 @@
     <t>TipoComunicazione</t>
   </si>
   <si>
-    <t>AgenziaSomministrazione/{http://servizi.lavoro.gov.it/unisomm}DatoreAnagraficaCompleta/{http://servizi.lavoro.gov.it/unisomm}cognome</t>
-  </si>
-  <si>
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Turrini</t>
+    <t>12345</t>
   </si>
   <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>555555</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
+    <t>9876</t>
   </si>
   <si>
     <t>ESITO</t>
@@ -73,14 +58,14 @@
     <t>DIFFERENZE</t>
   </si>
   <si>
-    <t>UpdateTextIn(node='/*/*[5]', text='555555')</t>
+    <t>UpdateTextIn(node='/*/*[5]', text='9876')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,23 +98,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,27 +180,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,24 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,22 +389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,19 +404,19 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -491,144 +424,76 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>FILE</t>
   </si>
@@ -40,13 +40,10 @@
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>9876</t>
+    <t>99999</t>
   </si>
   <si>
     <t>ESITO</t>
@@ -58,7 +55,7 @@
     <t>DIFFERENZE</t>
   </si>
   <si>
-    <t>UpdateTextIn(node='/*/*[5]', text='9876')</t>
+    <t>[InsertNode(target='/*[1]', tag='{http://servizi.lavoro.gov.it/unisomm}TipoComunicazione', position=4), UpdateTextIn(node='/*/*[5]', text='99999'), DeleteNode(node='/*/*[6]')]</t>
   </si>
 </sst>
 </file>
@@ -407,13 +404,13 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -423,17 +420,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,17 +437,14 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,17 +454,14 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,17 +471,14 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Modifica_campi_xml/Log.xlsx
+++ b/Modifica_campi_xml/Log.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Ali Haider Maqsood\Documents\GitHub\MAW\Modifica_campi_xml\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075F65C-8DAE-4030-A4ED-966F562C47CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="32175" yWindow="4815" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>FILE</t>
   </si>
@@ -40,10 +46,13 @@
     <t>VALORE DA MODIFICARE</t>
   </si>
   <si>
+    <t>newwwwww</t>
+  </si>
+  <si>
     <t>VALORE MODIFICATO</t>
   </si>
   <si>
-    <t>99999</t>
+    <t>252525</t>
   </si>
   <si>
     <t>ESITO</t>
@@ -55,14 +64,14 @@
     <t>DIFFERENZE</t>
   </si>
   <si>
-    <t>[InsertNode(target='/*[1]', tag='{http://servizi.lavoro.gov.it/unisomm}TipoComunicazione', position=4), UpdateTextIn(node='/*/*[5]', text='99999'), DeleteNode(node='/*/*[6]')]</t>
+    <t>['-   &lt;TipoComunicazione&gt;newwwwww&lt;/TipoComunicazione&gt;', '+   &lt;TipoComunicazione&gt;252525&lt;/TipoComunicazione&gt;']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,15 +104,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +439,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,81 +465,93 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
